--- a/Relatorio_Mensal_py.xlsx
+++ b/Relatorio_Mensal_py.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5683" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5683" uniqueCount="443">
   <si>
     <t>Categoria</t>
   </si>
@@ -1256,9 +1256,6 @@
     <t>Troca de correia</t>
   </si>
   <si>
-    <t>Despesa Gerais</t>
-  </si>
-  <si>
     <t>Reembolso Óleo (HB20)</t>
   </si>
   <si>
@@ -1338,9 +1335,6 @@
   </si>
   <si>
     <t>Gás Igreja</t>
-  </si>
-  <si>
-    <t>Despesas dos Carros</t>
   </si>
   <si>
     <t>Air Bags</t>
@@ -2478,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1493" workbookViewId="0">
-      <selection activeCell="E1506" sqref="E1506"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C763" sqref="C763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41870,7 +41864,7 @@
     </row>
     <row r="1220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1220" s="17" t="s">
-        <v>409</v>
+        <v>103</v>
       </c>
       <c r="B1220" s="2"/>
       <c r="C1220" s="2"/>
@@ -41884,7 +41878,7 @@
         <v>45752</v>
       </c>
       <c r="G1220" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H1220" s="1" t="str">
         <f>TEXT([1]!Tabela3[[#This Row],[Data do Pagamento]], "DDD")</f>
@@ -41985,7 +41979,7 @@
         <v>45752</v>
       </c>
       <c r="G1223" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H1223" s="1" t="str">
         <f>TEXT([1]!Tabela3[[#This Row],[Data do Pagamento]], "DDD")</f>
@@ -42088,7 +42082,7 @@
         <v>45752</v>
       </c>
       <c r="G1226" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H1226" s="1" t="str">
         <f>TEXT([1]!Tabela3[[#This Row],[Data do Pagamento]], "DDD")</f>
@@ -42105,7 +42099,7 @@
     </row>
     <row r="1227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1227" s="17" t="s">
-        <v>409</v>
+        <v>103</v>
       </c>
       <c r="B1227" s="2"/>
       <c r="C1227" s="2"/>
@@ -42460,7 +42454,7 @@
         <v>45755</v>
       </c>
       <c r="G1238" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H1238" s="1" t="str">
         <f>TEXT([1]!Tabela3[[#This Row],[Data do Pagamento]], "DDD")</f>
@@ -42480,7 +42474,7 @@
         <v>10</v>
       </c>
       <c r="B1239" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1239" s="2" t="s">
         <v>367</v>
@@ -42544,7 +42538,7 @@
         <v>10</v>
       </c>
       <c r="B1241" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1241" s="2" t="s">
         <v>367</v>
@@ -43035,7 +43029,7 @@
         <v>186</v>
       </c>
       <c r="B1256" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C1256" s="2" t="s">
         <v>206</v>
@@ -43596,10 +43590,10 @@
         <v>10</v>
       </c>
       <c r="B1273" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1273" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C1273" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="D1273" s="2" t="s">
         <v>18</v>
@@ -43671,7 +43665,7 @@
         <v>45755</v>
       </c>
       <c r="G1275" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1275" s="1" t="str">
         <f>TEXT([1]!Tabela3[[#This Row],[Data do Pagamento]], "DDD")</f>
@@ -43801,7 +43795,7 @@
         <v>45755</v>
       </c>
       <c r="G1279" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1279" s="1" t="str">
         <f>TEXT([1]!Tabela3[[#This Row],[Data do Pagamento]], "DDD")</f>
@@ -43832,7 +43826,7 @@
         <v>45755</v>
       </c>
       <c r="G1280" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H1280" s="1" t="str">
         <f>TEXT([1]!Tabela3[[#This Row],[Data do Pagamento]], "DDD")</f>
@@ -43987,7 +43981,7 @@
         <v>45757</v>
       </c>
       <c r="G1285" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H1285" s="1" t="str">
         <f>TEXT([1]!Tabela3[[#This Row],[Data do Pagamento]], "DDD")</f>
@@ -44352,7 +44346,7 @@
         <v>10</v>
       </c>
       <c r="B1297" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1297" s="2" t="s">
         <v>367</v>
@@ -44482,7 +44476,7 @@
         <v>46</v>
       </c>
       <c r="D1301" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E1301" s="1">
         <v>30</v>
@@ -44644,7 +44638,7 @@
         <v>45759</v>
       </c>
       <c r="G1306" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H1306" s="1" t="str">
         <f>TEXT([1]!Tabela3[[#This Row],[Data do Pagamento]], "DDD")</f>
@@ -45036,10 +45030,10 @@
         <v>186</v>
       </c>
       <c r="B1319" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1319" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C1319" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="D1319" s="2"/>
       <c r="E1319" s="1">
@@ -45129,7 +45123,7 @@
         <v>186</v>
       </c>
       <c r="B1322" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C1322" s="2" t="s">
         <v>206</v>
@@ -45160,7 +45154,7 @@
         <v>186</v>
       </c>
       <c r="B1323" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1323" s="2" t="s">
         <v>367</v>
@@ -45408,7 +45402,7 @@
         <v>186</v>
       </c>
       <c r="B1331" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1331" s="2" t="s">
         <v>73</v>
@@ -45625,7 +45619,7 @@
         <v>186</v>
       </c>
       <c r="B1338" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1338" s="2" t="s">
         <v>82</v>
@@ -45656,7 +45650,7 @@
         <v>186</v>
       </c>
       <c r="B1339" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1339" s="2" t="s">
         <v>82</v>
@@ -46361,7 +46355,7 @@
         <v>45762</v>
       </c>
       <c r="G1361" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H1361" s="1" t="str">
         <f>TEXT([1]!Tabela3[[#This Row],[Data do Pagamento]], "DDD")</f>
@@ -46427,7 +46421,7 @@
         <v>45762</v>
       </c>
       <c r="G1363" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H1363" s="1" t="str">
         <f>TEXT([1]!Tabela3[[#This Row],[Data do Pagamento]], "DDD")</f>
@@ -46759,10 +46753,10 @@
         <v>10</v>
       </c>
       <c r="B1374" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1374" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C1374" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="D1374" s="2" t="s">
         <v>337</v>
@@ -47095,7 +47089,7 @@
         <v>67</v>
       </c>
       <c r="D1384" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E1384" s="1">
         <v>249</v>
@@ -47828,7 +47822,7 @@
         <v>10</v>
       </c>
       <c r="B1407" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1407" s="2" t="s">
         <v>367</v>
@@ -47952,7 +47946,7 @@
         <v>10</v>
       </c>
       <c r="B1411" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C1411" s="2" t="s">
         <v>25</v>
@@ -48350,7 +48344,7 @@
         <v>46</v>
       </c>
       <c r="D1423" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E1423" s="1">
         <v>900</v>
@@ -48515,7 +48509,7 @@
         <v>60</v>
       </c>
       <c r="D1428" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E1428" s="1">
         <v>1771</v>
@@ -48542,7 +48536,7 @@
         <v>186</v>
       </c>
       <c r="B1429" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C1429" s="2" t="s">
         <v>206</v>
@@ -48575,7 +48569,7 @@
         <v>186</v>
       </c>
       <c r="B1430" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1430" s="2" t="s">
         <v>367</v>
@@ -48839,7 +48833,7 @@
         <v>186</v>
       </c>
       <c r="B1438" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1438" s="2" t="s">
         <v>73</v>
@@ -48944,7 +48938,7 @@
         <v>216</v>
       </c>
       <c r="D1441" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E1441" s="1">
         <v>800</v>
@@ -49070,13 +49064,13 @@
         <v>186</v>
       </c>
       <c r="B1445" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1445" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D1445" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E1445" s="1">
         <v>110</v>
@@ -49103,13 +49097,13 @@
         <v>186</v>
       </c>
       <c r="B1446" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1446" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D1446" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E1446" s="1">
         <v>800</v>
@@ -49433,7 +49427,7 @@
         <v>10</v>
       </c>
       <c r="B1456" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C1456" s="2" t="s">
         <v>70</v>
@@ -49576,7 +49570,7 @@
         <v>45771</v>
       </c>
       <c r="G1460" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H1460" s="1" t="str">
         <f>TEXT([1]!Tabela3[[#This Row],[Data do Pagamento]], "DDD")</f>
@@ -49721,7 +49715,7 @@
     </row>
     <row r="1465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1465" s="17" t="s">
-        <v>437</v>
+        <v>10</v>
       </c>
       <c r="B1465" s="2" t="s">
         <v>191</v>
@@ -49730,7 +49724,7 @@
         <v>17</v>
       </c>
       <c r="D1465" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E1465" s="1">
         <v>3500</v>
@@ -49914,10 +49908,10 @@
         <v>10</v>
       </c>
       <c r="B1471" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1471" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C1471" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="D1471" s="2" t="s">
         <v>30</v>
@@ -50802,7 +50796,7 @@
         <v>44</v>
       </c>
       <c r="D1499" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E1499" s="1">
         <v>20</v>
@@ -51053,7 +51047,7 @@
     </row>
     <row r="1507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1507" s="17" t="s">
-        <v>437</v>
+        <v>10</v>
       </c>
       <c r="B1507" s="2" t="s">
         <v>16</v>
@@ -51071,7 +51065,7 @@
         <v>45777</v>
       </c>
       <c r="G1507" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H1507" s="1" t="str">
         <f>TEXT([1]!Tabela3[[#This Row],[Data do Pagamento]], "DDD")</f>
@@ -51102,7 +51096,7 @@
         <v>45777</v>
       </c>
       <c r="G1508" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H1508" s="1" t="str">
         <f>TEXT([1]!Tabela3[[#This Row],[Data do Pagamento]], "DDD")</f>
@@ -51265,7 +51259,7 @@
         <v>45777</v>
       </c>
       <c r="G1513" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H1513" s="1" t="str">
         <f>TEXT([1]!Tabela3[[#This Row],[Data do Pagamento]], "DDD")</f>
@@ -51721,10 +51715,10 @@
         <v>186</v>
       </c>
       <c r="B1528" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1528" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C1528" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="D1528" s="2"/>
       <c r="E1528" s="1">
@@ -51814,7 +51808,7 @@
         <v>186</v>
       </c>
       <c r="B1531" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C1531" s="2" t="s">
         <v>206</v>
@@ -51845,7 +51839,7 @@
         <v>186</v>
       </c>
       <c r="B1532" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1532" s="2" t="s">
         <v>367</v>
@@ -52093,7 +52087,7 @@
         <v>186</v>
       </c>
       <c r="B1540" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1540" s="2" t="s">
         <v>73</v>
@@ -52279,7 +52273,7 @@
         <v>186</v>
       </c>
       <c r="B1546" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1546" s="2" t="s">
         <v>82</v>
@@ -52589,7 +52583,7 @@
         <v>186</v>
       </c>
       <c r="B1556" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1556" s="2" t="s">
         <v>367</v>
@@ -52682,7 +52676,7 @@
         <v>186</v>
       </c>
       <c r="B1559" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C1559" s="2" t="s">
         <v>73</v>
@@ -52930,7 +52924,7 @@
         <v>186</v>
       </c>
       <c r="B1567" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C1567" s="2" t="s">
         <v>206</v>
@@ -53271,10 +53265,10 @@
         <v>186</v>
       </c>
       <c r="B1578" s="25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C1578" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D1578" s="25"/>
       <c r="E1578" s="26">

--- a/Relatorio_Mensal_py.xlsx
+++ b/Relatorio_Mensal_py.xlsx
@@ -1968,8 +1968,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J1578" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
-  <autoFilter ref="A1:J1578"/>
-  <sortState ref="A1166:I1517">
+  <autoFilter ref="A1:J1578">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Receitas"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:J1578">
     <sortCondition ref="H1:H1578"/>
   </sortState>
   <tableColumns count="10">
@@ -2293,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1557" workbookViewId="0">
-      <selection activeCell="E1559" sqref="E1559"/>
+    <sheetView tabSelected="1" topLeftCell="A1344" workbookViewId="0">
+      <selection activeCell="E1418" sqref="E1418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2343,7 +2349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -2378,7 +2384,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -2411,7 +2417,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -2479,7 +2485,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2514,7 +2520,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -2617,7 +2623,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -2650,7 +2656,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -2716,7 +2722,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
@@ -2782,7 +2788,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
@@ -2815,7 +2821,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
@@ -2850,7 +2856,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -2885,7 +2891,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>10</v>
       </c>
@@ -2918,7 +2924,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>10</v>
       </c>
@@ -2951,7 +2957,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>10</v>
       </c>
@@ -2984,7 +2990,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>10</v>
       </c>
@@ -3050,7 +3056,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
@@ -3083,7 +3089,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>10</v>
       </c>
@@ -3116,7 +3122,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
@@ -3149,7 +3155,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
@@ -3182,7 +3188,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>10</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>10</v>
       </c>
@@ -3248,7 +3254,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>10</v>
       </c>
@@ -3281,7 +3287,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>10</v>
       </c>
@@ -3314,7 +3320,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
@@ -3347,7 +3353,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>10</v>
       </c>
@@ -3380,7 +3386,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>10</v>
       </c>
@@ -3415,7 +3421,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>10</v>
       </c>
@@ -3448,7 +3454,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>10</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>10</v>
       </c>
@@ -3514,7 +3520,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>10</v>
       </c>
@@ -3549,7 +3555,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>10</v>
       </c>
@@ -3582,7 +3588,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>10</v>
       </c>
@@ -3615,7 +3621,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>10</v>
       </c>
@@ -3648,7 +3654,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>10</v>
       </c>
@@ -3681,7 +3687,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>10</v>
       </c>
@@ -3714,7 +3720,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>10</v>
       </c>
@@ -3747,7 +3753,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>10</v>
       </c>
@@ -3780,7 +3786,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>10</v>
       </c>
@@ -3813,7 +3819,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>10</v>
       </c>
@@ -3848,7 +3854,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>10</v>
       </c>
@@ -3881,7 +3887,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>10</v>
       </c>
@@ -3914,7 +3920,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>10</v>
       </c>
@@ -3949,7 +3955,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>10</v>
       </c>
@@ -3982,7 +3988,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>10</v>
       </c>
@@ -4015,7 +4021,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>10</v>
       </c>
@@ -4050,7 +4056,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
@@ -4083,7 +4089,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>10</v>
       </c>
@@ -4116,7 +4122,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>10</v>
       </c>
@@ -4149,7 +4155,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>10</v>
       </c>
@@ -4182,7 +4188,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -4217,7 +4223,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>10</v>
       </c>
@@ -4250,7 +4256,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>10</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>10</v>
       </c>
@@ -4316,7 +4322,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>10</v>
       </c>
@@ -4349,7 +4355,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>10</v>
       </c>
@@ -4382,7 +4388,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>10</v>
       </c>
@@ -4415,7 +4421,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>10</v>
       </c>
@@ -4450,7 +4456,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>10</v>
       </c>
@@ -4483,7 +4489,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>10</v>
       </c>
@@ -4516,7 +4522,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>10</v>
       </c>
@@ -4549,7 +4555,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>10</v>
       </c>
@@ -4582,7 +4588,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>10</v>
       </c>
@@ -4615,7 +4621,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>10</v>
       </c>
@@ -4648,7 +4654,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>10</v>
       </c>
@@ -4683,7 +4689,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>10</v>
       </c>
@@ -4716,7 +4722,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>10</v>
       </c>
@@ -4749,7 +4755,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>10</v>
       </c>
@@ -4784,7 +4790,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
@@ -4819,7 +4825,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>10</v>
       </c>
@@ -4852,7 +4858,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>10</v>
       </c>
@@ -4887,7 +4893,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>10</v>
       </c>
@@ -4920,7 +4926,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>10</v>
       </c>
@@ -4953,7 +4959,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>10</v>
       </c>
@@ -4986,7 +4992,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>10</v>
       </c>
@@ -5019,7 +5025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>10</v>
       </c>
@@ -5054,7 +5060,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>10</v>
       </c>
@@ -5087,7 +5093,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>10</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>10</v>
       </c>
@@ -5153,7 +5159,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>10</v>
       </c>
@@ -5186,7 +5192,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>10</v>
       </c>
@@ -5219,7 +5225,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>10</v>
       </c>
@@ -5252,7 +5258,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>10</v>
       </c>
@@ -5285,7 +5291,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>10</v>
       </c>
@@ -5318,7 +5324,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>10</v>
       </c>
@@ -5353,7 +5359,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>10</v>
       </c>
@@ -5388,7 +5394,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>10</v>
       </c>
@@ -5421,7 +5427,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>10</v>
       </c>
@@ -5454,7 +5460,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>10</v>
       </c>
@@ -5487,7 +5493,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>10</v>
       </c>
@@ -5520,7 +5526,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>10</v>
       </c>
@@ -5553,7 +5559,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>10</v>
       </c>
@@ -5586,7 +5592,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
@@ -5619,7 +5625,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>10</v>
       </c>
@@ -5652,7 +5658,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>10</v>
       </c>
@@ -5685,7 +5691,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>10</v>
       </c>
@@ -5718,7 +5724,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>10</v>
       </c>
@@ -5751,7 +5757,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>10</v>
       </c>
@@ -5784,7 +5790,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>10</v>
       </c>
@@ -5817,7 +5823,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>10</v>
       </c>
@@ -5850,7 +5856,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>10</v>
       </c>
@@ -5883,7 +5889,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>10</v>
       </c>
@@ -5916,7 +5922,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>10</v>
       </c>
@@ -5949,7 +5955,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>10</v>
       </c>
@@ -5984,7 +5990,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>10</v>
       </c>
@@ -6017,7 +6023,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>10</v>
       </c>
@@ -6050,7 +6056,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>10</v>
       </c>
@@ -6081,7 +6087,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>10</v>
       </c>
@@ -6112,7 +6118,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>10</v>
       </c>
@@ -6145,7 +6151,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>10</v>
       </c>
@@ -6178,7 +6184,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
@@ -6211,7 +6217,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>10</v>
       </c>
@@ -6244,7 +6250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>10</v>
       </c>
@@ -6279,7 +6285,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>10</v>
       </c>
@@ -6312,7 +6318,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>10</v>
       </c>
@@ -6347,7 +6353,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>10</v>
       </c>
@@ -6380,7 +6386,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>10</v>
       </c>
@@ -6413,7 +6419,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>10</v>
       </c>
@@ -6446,7 +6452,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>10</v>
       </c>
@@ -6479,7 +6485,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>10</v>
       </c>
@@ -6512,7 +6518,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>10</v>
       </c>
@@ -6545,7 +6551,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>103</v>
       </c>
@@ -6574,7 +6580,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>103</v>
       </c>
@@ -6605,7 +6611,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>103</v>
       </c>
@@ -6634,7 +6640,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>103</v>
       </c>
@@ -6665,7 +6671,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>103</v>
       </c>
@@ -6696,7 +6702,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>103</v>
       </c>
@@ -6727,7 +6733,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>103</v>
       </c>
@@ -6758,7 +6764,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>103</v>
       </c>
@@ -6787,7 +6793,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>103</v>
       </c>
@@ -6818,7 +6824,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
         <v>103</v>
       </c>
@@ -6847,7 +6853,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>103</v>
       </c>
@@ -6878,7 +6884,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
         <v>103</v>
       </c>
@@ -6909,7 +6915,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
         <v>103</v>
       </c>
@@ -6940,7 +6946,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>103</v>
       </c>
@@ -6971,7 +6977,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
         <v>103</v>
       </c>
@@ -7002,7 +7008,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
         <v>103</v>
       </c>
@@ -7033,7 +7039,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
         <v>103</v>
       </c>
@@ -7062,7 +7068,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>103</v>
       </c>
@@ -7093,7 +7099,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>103</v>
       </c>
@@ -7122,7 +7128,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
         <v>103</v>
       </c>
@@ -7151,7 +7157,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
         <v>103</v>
       </c>
@@ -7182,7 +7188,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>10</v>
       </c>
@@ -7213,7 +7219,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
         <v>10</v>
       </c>
@@ -7244,7 +7250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
         <v>103</v>
       </c>
@@ -7275,7 +7281,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
         <v>103</v>
       </c>
@@ -7304,7 +7310,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>103</v>
       </c>
@@ -7335,7 +7341,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
         <v>103</v>
       </c>
@@ -7364,7 +7370,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
         <v>103</v>
       </c>
@@ -7393,7 +7399,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
         <v>103</v>
       </c>
@@ -7424,7 +7430,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
         <v>103</v>
       </c>
@@ -7455,7 +7461,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
         <v>103</v>
       </c>
@@ -7486,7 +7492,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>103</v>
       </c>
@@ -7515,7 +7521,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
         <v>103</v>
       </c>
@@ -7546,7 +7552,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
         <v>103</v>
       </c>
@@ -7577,7 +7583,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
         <v>103</v>
       </c>
@@ -7606,7 +7612,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>103</v>
       </c>
@@ -7637,7 +7643,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
         <v>103</v>
       </c>
@@ -7666,7 +7672,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
         <v>103</v>
       </c>
@@ -7697,7 +7703,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
         <v>103</v>
       </c>
@@ -7726,7 +7732,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
         <v>103</v>
       </c>
@@ -7755,7 +7761,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
         <v>103</v>
       </c>
@@ -7784,7 +7790,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
         <v>103</v>
       </c>
@@ -7815,7 +7821,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
         <v>103</v>
       </c>
@@ -7846,7 +7852,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>103</v>
       </c>
@@ -7877,7 +7883,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
         <v>103</v>
       </c>
@@ -7908,7 +7914,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7" t="s">
         <v>103</v>
       </c>
@@ -7939,7 +7945,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7" t="s">
         <v>103</v>
       </c>
@@ -7968,7 +7974,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="7" t="s">
         <v>103</v>
       </c>
@@ -7997,7 +8003,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7" t="s">
         <v>103</v>
       </c>
@@ -8028,7 +8034,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
         <v>103</v>
       </c>
@@ -8059,7 +8065,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7" t="s">
         <v>103</v>
       </c>
@@ -8090,7 +8096,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7" t="s">
         <v>103</v>
       </c>
@@ -8121,7 +8127,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
         <v>103</v>
       </c>
@@ -8152,7 +8158,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>103</v>
       </c>
@@ -8181,7 +8187,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7" t="s">
         <v>103</v>
       </c>
@@ -8212,7 +8218,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7" t="s">
         <v>103</v>
       </c>
@@ -8243,7 +8249,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7" t="s">
         <v>103</v>
       </c>
@@ -8274,7 +8280,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
         <v>103</v>
       </c>
@@ -8305,7 +8311,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
         <v>103</v>
       </c>
@@ -8336,7 +8342,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7" t="s">
         <v>103</v>
       </c>
@@ -8365,7 +8371,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7" t="s">
         <v>103</v>
       </c>
@@ -8396,7 +8402,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>103</v>
       </c>
@@ -8425,7 +8431,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
         <v>103</v>
       </c>
@@ -8454,7 +8460,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="7" t="s">
         <v>103</v>
       </c>
@@ -8483,7 +8489,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="7" t="s">
         <v>103</v>
       </c>
@@ -8512,7 +8518,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7" t="s">
         <v>103</v>
       </c>
@@ -8541,7 +8547,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="7" t="s">
         <v>103</v>
       </c>
@@ -8572,7 +8578,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
         <v>103</v>
       </c>
@@ -8601,7 +8607,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="7" t="s">
         <v>103</v>
       </c>
@@ -8630,7 +8636,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
         <v>103</v>
       </c>
@@ -8661,7 +8667,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
         <v>103</v>
       </c>
@@ -8690,7 +8696,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>103</v>
       </c>
@@ -8721,7 +8727,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="7" t="s">
         <v>103</v>
       </c>
@@ -8750,7 +8756,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="7" t="s">
         <v>103</v>
       </c>
@@ -8781,7 +8787,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="7" t="s">
         <v>103</v>
       </c>
@@ -8812,7 +8818,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>103</v>
       </c>
@@ -8841,7 +8847,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="7" t="s">
         <v>103</v>
       </c>
@@ -8872,7 +8878,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="7" t="s">
         <v>103</v>
       </c>
@@ -8901,7 +8907,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
         <v>103</v>
       </c>
@@ -8930,7 +8936,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>103</v>
       </c>
@@ -8959,7 +8965,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="7" t="s">
         <v>103</v>
       </c>
@@ -8990,7 +8996,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="7" t="s">
         <v>103</v>
       </c>
@@ -9019,7 +9025,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="7" t="s">
         <v>103</v>
       </c>
@@ -9048,7 +9054,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="7" t="s">
         <v>103</v>
       </c>
@@ -9077,7 +9083,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="7" t="s">
         <v>103</v>
       </c>
@@ -9108,7 +9114,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
         <v>103</v>
       </c>
@@ -9139,7 +9145,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
         <v>103</v>
       </c>
@@ -9170,7 +9176,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="7" t="s">
         <v>103</v>
       </c>
@@ -9199,7 +9205,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="7" t="s">
         <v>103</v>
       </c>
@@ -9228,7 +9234,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>103</v>
       </c>
@@ -9257,7 +9263,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="7" t="s">
         <v>103</v>
       </c>
@@ -9288,7 +9294,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="7" t="s">
         <v>103</v>
       </c>
@@ -9317,7 +9323,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="7" t="s">
         <v>103</v>
       </c>
@@ -9348,7 +9354,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>103</v>
       </c>
@@ -9377,7 +9383,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="7" t="s">
         <v>103</v>
       </c>
@@ -9408,7 +9414,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
         <v>103</v>
       </c>
@@ -9439,7 +9445,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="7" t="s">
         <v>103</v>
       </c>
@@ -9470,7 +9476,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>103</v>
       </c>
@@ -9499,7 +9505,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="7" t="s">
         <v>103</v>
       </c>
@@ -9528,7 +9534,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="7" t="s">
         <v>103</v>
       </c>
@@ -9557,7 +9563,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="7" t="s">
         <v>103</v>
       </c>
@@ -9588,7 +9594,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="7" t="s">
         <v>103</v>
       </c>
@@ -9617,7 +9623,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
         <v>103</v>
       </c>
@@ -9648,7 +9654,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="7" t="s">
         <v>103</v>
       </c>
@@ -9677,7 +9683,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="7" t="s">
         <v>103</v>
       </c>
@@ -9708,7 +9714,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="7" t="s">
         <v>103</v>
       </c>
@@ -9739,7 +9745,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
         <v>103</v>
       </c>
@@ -9768,7 +9774,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="7" t="s">
         <v>103</v>
       </c>
@@ -9797,7 +9803,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="7" t="s">
         <v>103</v>
       </c>
@@ -9828,7 +9834,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="7" t="s">
         <v>103</v>
       </c>
@@ -9857,7 +9863,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="7" t="s">
         <v>103</v>
       </c>
@@ -9886,7 +9892,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="7" t="s">
         <v>103</v>
       </c>
@@ -9917,7 +9923,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="7" t="s">
         <v>103</v>
       </c>
@@ -9948,7 +9954,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
         <v>103</v>
       </c>
@@ -9979,7 +9985,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="7" t="s">
         <v>103</v>
       </c>
@@ -13046,7 +13052,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7" t="s">
         <v>10</v>
       </c>
@@ -13079,7 +13085,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="7" t="s">
         <v>10</v>
       </c>
@@ -13112,7 +13118,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="7" t="s">
         <v>103</v>
       </c>
@@ -13141,7 +13147,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="7" t="s">
         <v>10</v>
       </c>
@@ -13174,7 +13180,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="7" t="s">
         <v>103</v>
       </c>
@@ -13203,7 +13209,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="7" t="s">
         <v>103</v>
       </c>
@@ -13234,7 +13240,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="7" t="s">
         <v>103</v>
       </c>
@@ -13265,7 +13271,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="7" t="s">
         <v>103</v>
       </c>
@@ -13294,7 +13300,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="7" t="s">
         <v>103</v>
       </c>
@@ -13323,7 +13329,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="7" t="s">
         <v>103</v>
       </c>
@@ -13352,7 +13358,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="7" t="s">
         <v>103</v>
       </c>
@@ -13381,7 +13387,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="7" t="s">
         <v>103</v>
       </c>
@@ -13410,7 +13416,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="7" t="s">
         <v>103</v>
       </c>
@@ -13439,7 +13445,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="7" t="s">
         <v>10</v>
       </c>
@@ -13472,7 +13478,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="7" t="s">
         <v>10</v>
       </c>
@@ -13505,7 +13511,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="7" t="s">
         <v>103</v>
       </c>
@@ -13536,7 +13542,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="7" t="s">
         <v>103</v>
       </c>
@@ -13565,7 +13571,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="7" t="s">
         <v>103</v>
       </c>
@@ -13594,7 +13600,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="7" t="s">
         <v>10</v>
       </c>
@@ -13627,7 +13633,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="7" t="s">
         <v>103</v>
       </c>
@@ -13656,7 +13662,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="7" t="s">
         <v>103</v>
       </c>
@@ -13685,7 +13691,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="7" t="s">
         <v>10</v>
       </c>
@@ -13718,7 +13724,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="7" t="s">
         <v>10</v>
       </c>
@@ -13751,7 +13757,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="7" t="s">
         <v>10</v>
       </c>
@@ -13784,7 +13790,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="7" t="s">
         <v>103</v>
       </c>
@@ -13813,7 +13819,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="7" t="s">
         <v>103</v>
       </c>
@@ -13842,7 +13848,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="7" t="s">
         <v>103</v>
       </c>
@@ -13873,7 +13879,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="7" t="s">
         <v>103</v>
       </c>
@@ -13902,7 +13908,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="7" t="s">
         <v>103</v>
       </c>
@@ -13933,7 +13939,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="7" t="s">
         <v>103</v>
       </c>
@@ -13964,7 +13970,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="7" t="s">
         <v>10</v>
       </c>
@@ -13997,7 +14003,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="7" t="s">
         <v>103</v>
       </c>
@@ -14026,7 +14032,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="7" t="s">
         <v>10</v>
       </c>
@@ -14059,7 +14065,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="7" t="s">
         <v>10</v>
       </c>
@@ -14092,7 +14098,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="7" t="s">
         <v>10</v>
       </c>
@@ -14125,7 +14131,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="7" t="s">
         <v>103</v>
       </c>
@@ -14154,7 +14160,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="7" t="s">
         <v>10</v>
       </c>
@@ -14185,7 +14191,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="7" t="s">
         <v>10</v>
       </c>
@@ -14220,7 +14226,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="7" t="s">
         <v>103</v>
       </c>
@@ -14249,7 +14255,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="7" t="s">
         <v>103</v>
       </c>
@@ -14280,7 +14286,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="7" t="s">
         <v>103</v>
       </c>
@@ -14311,7 +14317,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="7" t="s">
         <v>103</v>
       </c>
@@ -14342,7 +14348,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="7" t="s">
         <v>10</v>
       </c>
@@ -14377,7 +14383,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="7" t="s">
         <v>10</v>
       </c>
@@ -14410,7 +14416,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="7" t="s">
         <v>10</v>
       </c>
@@ -14443,7 +14449,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="7" t="s">
         <v>10</v>
       </c>
@@ -14476,7 +14482,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="7" t="s">
         <v>103</v>
       </c>
@@ -14505,7 +14511,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="7" t="s">
         <v>10</v>
       </c>
@@ -14538,7 +14544,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="7" t="s">
         <v>103</v>
       </c>
@@ -14569,7 +14575,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="7" t="s">
         <v>103</v>
       </c>
@@ -14600,7 +14606,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="7" t="s">
         <v>103</v>
       </c>
@@ -14631,7 +14637,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="7" t="s">
         <v>103</v>
       </c>
@@ -14662,7 +14668,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="7" t="s">
         <v>10</v>
       </c>
@@ -14693,7 +14699,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="7" t="s">
         <v>103</v>
       </c>
@@ -14722,7 +14728,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="7" t="s">
         <v>10</v>
       </c>
@@ -14755,7 +14761,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="7" t="s">
         <v>10</v>
       </c>
@@ -14788,7 +14794,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="7" t="s">
         <v>10</v>
       </c>
@@ -14821,7 +14827,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="7" t="s">
         <v>10</v>
       </c>
@@ -14852,7 +14858,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="7" t="s">
         <v>10</v>
       </c>
@@ -14885,7 +14891,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="7" t="s">
         <v>103</v>
       </c>
@@ -14914,7 +14920,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="7" t="s">
         <v>103</v>
       </c>
@@ -14943,7 +14949,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="7" t="s">
         <v>103</v>
       </c>
@@ -14974,7 +14980,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="7" t="s">
         <v>10</v>
       </c>
@@ -15007,7 +15013,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="7" t="s">
         <v>10</v>
       </c>
@@ -15040,7 +15046,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="7" t="s">
         <v>10</v>
       </c>
@@ -15073,7 +15079,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="7" t="s">
         <v>103</v>
       </c>
@@ -15102,7 +15108,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="7" t="s">
         <v>103</v>
       </c>
@@ -15131,7 +15137,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="7" t="s">
         <v>10</v>
       </c>
@@ -15164,7 +15170,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="7" t="s">
         <v>10</v>
       </c>
@@ -15197,7 +15203,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="7" t="s">
         <v>10</v>
       </c>
@@ -15230,7 +15236,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="7" t="s">
         <v>10</v>
       </c>
@@ -15263,7 +15269,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="7" t="s">
         <v>103</v>
       </c>
@@ -15292,7 +15298,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="7" t="s">
         <v>10</v>
       </c>
@@ -15327,7 +15333,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="7" t="s">
         <v>10</v>
       </c>
@@ -15358,7 +15364,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="7" t="s">
         <v>10</v>
       </c>
@@ -15389,7 +15395,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="7" t="s">
         <v>10</v>
       </c>
@@ -15422,7 +15428,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="7" t="s">
         <v>10</v>
       </c>
@@ -15453,7 +15459,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="7" t="s">
         <v>10</v>
       </c>
@@ -15484,7 +15490,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="7" t="s">
         <v>10</v>
       </c>
@@ -15517,7 +15523,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="7" t="s">
         <v>103</v>
       </c>
@@ -15546,7 +15552,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="7" t="s">
         <v>103</v>
       </c>
@@ -15575,7 +15581,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="7" t="s">
         <v>103</v>
       </c>
@@ -15604,7 +15610,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="7" t="s">
         <v>10</v>
       </c>
@@ -15637,7 +15643,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="7" t="s">
         <v>10</v>
       </c>
@@ -15670,7 +15676,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="7" t="s">
         <v>10</v>
       </c>
@@ -15703,7 +15709,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="7" t="s">
         <v>10</v>
       </c>
@@ -15738,7 +15744,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="7" t="s">
         <v>10</v>
       </c>
@@ -15773,7 +15779,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="7" t="s">
         <v>10</v>
       </c>
@@ -15808,7 +15814,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="7" t="s">
         <v>103</v>
       </c>
@@ -15837,7 +15843,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="7" t="s">
         <v>10</v>
       </c>
@@ -15870,7 +15876,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="7" t="s">
         <v>103</v>
       </c>
@@ -15901,7 +15907,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="7" t="s">
         <v>10</v>
       </c>
@@ -15934,7 +15940,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="7" t="s">
         <v>10</v>
       </c>
@@ -15967,7 +15973,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="7" t="s">
         <v>10</v>
       </c>
@@ -16000,7 +16006,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="7" t="s">
         <v>10</v>
       </c>
@@ -16033,7 +16039,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="7" t="s">
         <v>10</v>
       </c>
@@ -16064,7 +16070,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="7" t="s">
         <v>10</v>
       </c>
@@ -16097,7 +16103,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="7" t="s">
         <v>10</v>
       </c>
@@ -16128,7 +16134,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="7" t="s">
         <v>10</v>
       </c>
@@ -16161,7 +16167,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="7" t="s">
         <v>10</v>
       </c>
@@ -16192,7 +16198,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="7" t="s">
         <v>10</v>
       </c>
@@ -16225,7 +16231,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="7" t="s">
         <v>10</v>
       </c>
@@ -16258,7 +16264,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="7" t="s">
         <v>10</v>
       </c>
@@ -16291,7 +16297,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="7" t="s">
         <v>103</v>
       </c>
@@ -16320,7 +16326,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="7" t="s">
         <v>103</v>
       </c>
@@ -16349,7 +16355,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="7" t="s">
         <v>10</v>
       </c>
@@ -16384,7 +16390,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="7" t="s">
         <v>10</v>
       </c>
@@ -16417,7 +16423,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="7" t="s">
         <v>103</v>
       </c>
@@ -16448,7 +16454,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="7" t="s">
         <v>103</v>
       </c>
@@ -16477,7 +16483,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="7" t="s">
         <v>10</v>
       </c>
@@ -16510,7 +16516,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="7" t="s">
         <v>103</v>
       </c>
@@ -16539,7 +16545,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="7" t="s">
         <v>10</v>
       </c>
@@ -16572,7 +16578,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="7" t="s">
         <v>103</v>
       </c>
@@ -16603,7 +16609,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="7" t="s">
         <v>103</v>
       </c>
@@ -16632,7 +16638,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="7" t="s">
         <v>10</v>
       </c>
@@ -16665,7 +16671,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="7" t="s">
         <v>10</v>
       </c>
@@ -16698,7 +16704,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="7" t="s">
         <v>10</v>
       </c>
@@ -16733,7 +16739,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="7" t="s">
         <v>10</v>
       </c>
@@ -16768,7 +16774,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="7" t="s">
         <v>10</v>
       </c>
@@ -16801,7 +16807,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="7" t="s">
         <v>10</v>
       </c>
@@ -16834,7 +16840,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="7" t="s">
         <v>103</v>
       </c>
@@ -16865,7 +16871,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="7" t="s">
         <v>103</v>
       </c>
@@ -16894,7 +16900,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="7" t="s">
         <v>103</v>
       </c>
@@ -16923,7 +16929,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="7" t="s">
         <v>103</v>
       </c>
@@ -16952,7 +16958,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="7" t="s">
         <v>10</v>
       </c>
@@ -16985,7 +16991,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="7" t="s">
         <v>103</v>
       </c>
@@ -17014,7 +17020,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="7" t="s">
         <v>10</v>
       </c>
@@ -17047,7 +17053,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="7" t="s">
         <v>103</v>
       </c>
@@ -17076,7 +17082,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="7" t="s">
         <v>10</v>
       </c>
@@ -17109,7 +17115,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="7" t="s">
         <v>10</v>
       </c>
@@ -17144,7 +17150,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="7" t="s">
         <v>10</v>
       </c>
@@ -17177,7 +17183,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="7" t="s">
         <v>10</v>
       </c>
@@ -17212,7 +17218,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="7" t="s">
         <v>10</v>
       </c>
@@ -17247,7 +17253,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="7" t="s">
         <v>10</v>
       </c>
@@ -17282,7 +17288,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="7" t="s">
         <v>10</v>
       </c>
@@ -17317,7 +17323,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="7" t="s">
         <v>10</v>
       </c>
@@ -17352,7 +17358,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="7" t="s">
         <v>10</v>
       </c>
@@ -17387,7 +17393,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="7" t="s">
         <v>10</v>
       </c>
@@ -17420,7 +17426,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="7" t="s">
         <v>10</v>
       </c>
@@ -17451,7 +17457,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="7" t="s">
         <v>10</v>
       </c>
@@ -17486,7 +17492,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="7" t="s">
         <v>10</v>
       </c>
@@ -17521,7 +17527,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="7" t="s">
         <v>10</v>
       </c>
@@ -17556,7 +17562,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="7" t="s">
         <v>10</v>
       </c>
@@ -17589,7 +17595,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="7" t="s">
         <v>10</v>
       </c>
@@ -17622,7 +17628,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="7" t="s">
         <v>10</v>
       </c>
@@ -17655,7 +17661,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="7" t="s">
         <v>10</v>
       </c>
@@ -17688,7 +17694,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="7" t="s">
         <v>10</v>
       </c>
@@ -17721,7 +17727,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="7" t="s">
         <v>10</v>
       </c>
@@ -17754,7 +17760,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="7" t="s">
         <v>103</v>
       </c>
@@ -17783,7 +17789,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="7" t="s">
         <v>103</v>
       </c>
@@ -17814,7 +17820,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="7" t="s">
         <v>103</v>
       </c>
@@ -17843,7 +17849,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="7" t="s">
         <v>103</v>
       </c>
@@ -17872,7 +17878,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="7" t="s">
         <v>103</v>
       </c>
@@ -17903,7 +17909,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="7" t="s">
         <v>10</v>
       </c>
@@ -17936,7 +17942,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="7" t="s">
         <v>10</v>
       </c>
@@ -17969,7 +17975,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="7" t="s">
         <v>10</v>
       </c>
@@ -18002,7 +18008,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="7" t="s">
         <v>10</v>
       </c>
@@ -18035,7 +18041,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="7" t="s">
         <v>10</v>
       </c>
@@ -18068,7 +18074,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="7" t="s">
         <v>10</v>
       </c>
@@ -18101,7 +18107,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="7" t="s">
         <v>103</v>
       </c>
@@ -18130,7 +18136,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="7" t="s">
         <v>103</v>
       </c>
@@ -18161,7 +18167,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="7" t="s">
         <v>103</v>
       </c>
@@ -18190,7 +18196,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="7" t="s">
         <v>10</v>
       </c>
@@ -18223,7 +18229,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="7" t="s">
         <v>10</v>
       </c>
@@ -18256,7 +18262,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="7" t="s">
         <v>103</v>
       </c>
@@ -18285,7 +18291,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="7" t="s">
         <v>103</v>
       </c>
@@ -18314,7 +18320,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="7" t="s">
         <v>103</v>
       </c>
@@ -18345,7 +18351,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="7" t="s">
         <v>10</v>
       </c>
@@ -18378,7 +18384,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="7" t="s">
         <v>10</v>
       </c>
@@ -18411,7 +18417,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="7" t="s">
         <v>103</v>
       </c>
@@ -18440,7 +18446,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="7" t="s">
         <v>103</v>
       </c>
@@ -18469,7 +18475,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="7" t="s">
         <v>10</v>
       </c>
@@ -18504,7 +18510,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="7" t="s">
         <v>10</v>
       </c>
@@ -18537,7 +18543,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="7" t="s">
         <v>10</v>
       </c>
@@ -18572,7 +18578,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="7" t="s">
         <v>10</v>
       </c>
@@ -18607,7 +18613,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="7" t="s">
         <v>10</v>
       </c>
@@ -18642,7 +18648,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="7" t="s">
         <v>10</v>
       </c>
@@ -18675,7 +18681,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="7" t="s">
         <v>103</v>
       </c>
@@ -18706,7 +18712,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="7" t="s">
         <v>10</v>
       </c>
@@ -18741,7 +18747,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="7" t="s">
         <v>10</v>
       </c>
@@ -18776,7 +18782,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="7" t="s">
         <v>10</v>
       </c>
@@ -18811,7 +18817,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="7" t="s">
         <v>10</v>
       </c>
@@ -18844,7 +18850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="7" t="s">
         <v>103</v>
       </c>
@@ -18873,7 +18879,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="7" t="s">
         <v>10</v>
       </c>
@@ -18908,7 +18914,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="7" t="s">
         <v>10</v>
       </c>
@@ -18943,7 +18949,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="7" t="s">
         <v>103</v>
       </c>
@@ -18974,7 +18980,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="7" t="s">
         <v>103</v>
       </c>
@@ -19003,7 +19009,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="7" t="s">
         <v>103</v>
       </c>
@@ -19034,7 +19040,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="7" t="s">
         <v>103</v>
       </c>
@@ -19065,7 +19071,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="7" t="s">
         <v>10</v>
       </c>
@@ -19100,7 +19106,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="7" t="s">
         <v>10</v>
       </c>
@@ -19133,7 +19139,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="7" t="s">
         <v>103</v>
       </c>
@@ -19162,7 +19168,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="7" t="s">
         <v>10</v>
       </c>
@@ -19195,7 +19201,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="7" t="s">
         <v>10</v>
       </c>
@@ -19228,7 +19234,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="7" t="s">
         <v>10</v>
       </c>
@@ -19261,7 +19267,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="7" t="s">
         <v>10</v>
       </c>
@@ -19294,7 +19300,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="7" t="s">
         <v>103</v>
       </c>
@@ -19323,7 +19329,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="7" t="s">
         <v>103</v>
       </c>
@@ -19352,7 +19358,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="7" t="s">
         <v>103</v>
       </c>
@@ -19385,7 +19391,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="7" t="s">
         <v>103</v>
       </c>
@@ -19414,7 +19420,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="7" t="s">
         <v>103</v>
       </c>
@@ -19445,7 +19451,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="7" t="s">
         <v>10</v>
       </c>
@@ -19480,7 +19486,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="7" t="s">
         <v>10</v>
       </c>
@@ -19513,7 +19519,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="7" t="s">
         <v>103</v>
       </c>
@@ -19542,7 +19548,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="7" t="s">
         <v>103</v>
       </c>
@@ -19573,7 +19579,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="7" t="s">
         <v>10</v>
       </c>
@@ -19606,7 +19612,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="7" t="s">
         <v>103</v>
       </c>
@@ -19637,7 +19643,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="7" t="s">
         <v>10</v>
       </c>
@@ -19670,7 +19676,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="7" t="s">
         <v>10</v>
       </c>
@@ -19705,7 +19711,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="7" t="s">
         <v>10</v>
       </c>
@@ -19740,7 +19746,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="7" t="s">
         <v>10</v>
       </c>
@@ -19775,7 +19781,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="7" t="s">
         <v>10</v>
       </c>
@@ -19810,7 +19816,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="7" t="s">
         <v>10</v>
       </c>
@@ -19845,7 +19851,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="7" t="s">
         <v>10</v>
       </c>
@@ -19880,7 +19886,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="7" t="s">
         <v>10</v>
       </c>
@@ -19915,7 +19921,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="7" t="s">
         <v>10</v>
       </c>
@@ -19950,7 +19956,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="7" t="s">
         <v>10</v>
       </c>
@@ -19985,7 +19991,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="7" t="s">
         <v>10</v>
       </c>
@@ -20018,7 +20024,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="7" t="s">
         <v>10</v>
       </c>
@@ -20051,7 +20057,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="7" t="s">
         <v>10</v>
       </c>
@@ -20086,7 +20092,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="7" t="s">
         <v>10</v>
       </c>
@@ -20119,7 +20125,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="7" t="s">
         <v>103</v>
       </c>
@@ -20150,7 +20156,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="7" t="s">
         <v>10</v>
       </c>
@@ -20183,7 +20189,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="7" t="s">
         <v>10</v>
       </c>
@@ -20218,7 +20224,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="7" t="s">
         <v>103</v>
       </c>
@@ -20249,7 +20255,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="7" t="s">
         <v>103</v>
       </c>
@@ -20280,7 +20286,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="7" t="s">
         <v>10</v>
       </c>
@@ -20315,7 +20321,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="7" t="s">
         <v>10</v>
       </c>
@@ -20348,7 +20354,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="7" t="s">
         <v>103</v>
       </c>
@@ -20377,7 +20383,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="7" t="s">
         <v>103</v>
       </c>
@@ -20406,7 +20412,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="7" t="s">
         <v>10</v>
       </c>
@@ -20439,7 +20445,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="7" t="s">
         <v>10</v>
       </c>
@@ -20472,7 +20478,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="7" t="s">
         <v>10</v>
       </c>
@@ -20505,7 +20511,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="7" t="s">
         <v>10</v>
       </c>
@@ -20538,7 +20544,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="7" t="s">
         <v>10</v>
       </c>
@@ -20571,7 +20577,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="7" t="s">
         <v>103</v>
       </c>
@@ -20600,7 +20606,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="7" t="s">
         <v>103</v>
       </c>
@@ -20629,7 +20635,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="7" t="s">
         <v>103</v>
       </c>
@@ -20658,7 +20664,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="7" t="s">
         <v>103</v>
       </c>
@@ -20687,7 +20693,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="7" t="s">
         <v>103</v>
       </c>
@@ -20716,7 +20722,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="7" t="s">
         <v>10</v>
       </c>
@@ -20751,7 +20757,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="7" t="s">
         <v>103</v>
       </c>
@@ -20780,7 +20786,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="7" t="s">
         <v>103</v>
       </c>
@@ -20809,7 +20815,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="7" t="s">
         <v>103</v>
       </c>
@@ -20838,7 +20844,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="7" t="s">
         <v>103</v>
       </c>
@@ -20869,7 +20875,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="7" t="s">
         <v>10</v>
       </c>
@@ -20902,7 +20908,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="7" t="s">
         <v>103</v>
       </c>
@@ -20931,7 +20937,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="7" t="s">
         <v>10</v>
       </c>
@@ -20966,7 +20972,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="7" t="s">
         <v>103</v>
       </c>
@@ -20995,7 +21001,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="7" t="s">
         <v>10</v>
       </c>
@@ -21028,7 +21034,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="7" t="s">
         <v>10</v>
       </c>
@@ -21061,7 +21067,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="7" t="s">
         <v>103</v>
       </c>
@@ -21090,7 +21096,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="7" t="s">
         <v>103</v>
       </c>
@@ -21121,7 +21127,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="7" t="s">
         <v>103</v>
       </c>
@@ -21152,7 +21158,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="7" t="s">
         <v>10</v>
       </c>
@@ -21185,7 +21191,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="7" t="s">
         <v>103</v>
       </c>
@@ -21214,7 +21220,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="7" t="s">
         <v>10</v>
       </c>
@@ -21247,7 +21253,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="7" t="s">
         <v>10</v>
       </c>
@@ -21280,7 +21286,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="7" t="s">
         <v>10</v>
       </c>
@@ -21313,7 +21319,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="7" t="s">
         <v>10</v>
       </c>
@@ -21346,7 +21352,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="7" t="s">
         <v>103</v>
       </c>
@@ -21375,7 +21381,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="7" t="s">
         <v>10</v>
       </c>
@@ -21408,7 +21414,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="7" t="s">
         <v>103</v>
       </c>
@@ -21439,7 +21445,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="7" t="s">
         <v>10</v>
       </c>
@@ -21472,7 +21478,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="7" t="s">
         <v>10</v>
       </c>
@@ -21505,7 +21511,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="7" t="s">
         <v>10</v>
       </c>
@@ -21538,7 +21544,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="7" t="s">
         <v>10</v>
       </c>
@@ -21573,7 +21579,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="7" t="s">
         <v>103</v>
       </c>
@@ -21602,7 +21608,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="7" t="s">
         <v>103</v>
       </c>
@@ -21631,7 +21637,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="7" t="s">
         <v>103</v>
       </c>
@@ -21662,7 +21668,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="7" t="s">
         <v>10</v>
       </c>
@@ -21695,7 +21701,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="7" t="s">
         <v>103</v>
       </c>
@@ -26703,7 +26709,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" s="7" t="s">
         <v>103</v>
       </c>
@@ -26732,7 +26738,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" s="7" t="s">
         <v>103</v>
       </c>
@@ -26761,7 +26767,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" s="7" t="s">
         <v>10</v>
       </c>
@@ -26792,7 +26798,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" s="7" t="s">
         <v>10</v>
       </c>
@@ -26825,7 +26831,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" s="7" t="s">
         <v>103</v>
       </c>
@@ -26856,7 +26862,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" s="7" t="s">
         <v>10</v>
       </c>
@@ -26889,7 +26895,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" s="7" t="s">
         <v>103</v>
       </c>
@@ -26918,7 +26924,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" s="7" t="s">
         <v>10</v>
       </c>
@@ -26951,7 +26957,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" s="7" t="s">
         <v>10</v>
       </c>
@@ -26984,7 +26990,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" s="7" t="s">
         <v>10</v>
       </c>
@@ -27017,7 +27023,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" s="7" t="s">
         <v>10</v>
       </c>
@@ -27050,7 +27056,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" s="7" t="s">
         <v>10</v>
       </c>
@@ -27083,7 +27089,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" s="7" t="s">
         <v>10</v>
       </c>
@@ -27116,7 +27122,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" s="7" t="s">
         <v>103</v>
       </c>
@@ -27145,7 +27151,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" s="7" t="s">
         <v>10</v>
       </c>
@@ -27178,7 +27184,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" s="7" t="s">
         <v>10</v>
       </c>
@@ -27211,7 +27217,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" s="7" t="s">
         <v>103</v>
       </c>
@@ -27242,7 +27248,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" s="7" t="s">
         <v>103</v>
       </c>
@@ -27271,7 +27277,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" s="7" t="s">
         <v>10</v>
       </c>
@@ -27304,7 +27310,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" s="7" t="s">
         <v>10</v>
       </c>
@@ -27337,7 +27343,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" s="7" t="s">
         <v>103</v>
       </c>
@@ -27366,7 +27372,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" s="7" t="s">
         <v>103</v>
       </c>
@@ -27395,7 +27401,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" s="7" t="s">
         <v>10</v>
       </c>
@@ -27428,7 +27434,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" s="7" t="s">
         <v>10</v>
       </c>
@@ -27461,7 +27467,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" s="7" t="s">
         <v>10</v>
       </c>
@@ -27494,7 +27500,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" s="7" t="s">
         <v>103</v>
       </c>
@@ -27523,7 +27529,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" s="7" t="s">
         <v>10</v>
       </c>
@@ -27556,7 +27562,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" s="7" t="s">
         <v>10</v>
       </c>
@@ -27591,7 +27597,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" s="7" t="s">
         <v>10</v>
       </c>
@@ -27624,7 +27630,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" s="7" t="s">
         <v>103</v>
       </c>
@@ -27653,7 +27659,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" s="7" t="s">
         <v>103</v>
       </c>
@@ -27684,7 +27690,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" s="7" t="s">
         <v>10</v>
       </c>
@@ -27717,7 +27723,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" s="7" t="s">
         <v>10</v>
       </c>
@@ -27750,7 +27756,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" s="7" t="s">
         <v>10</v>
       </c>
@@ -27783,7 +27789,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" s="7" t="s">
         <v>10</v>
       </c>
@@ -27816,7 +27822,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" s="7" t="s">
         <v>10</v>
       </c>
@@ -27849,7 +27855,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" s="7" t="s">
         <v>10</v>
       </c>
@@ -27882,7 +27888,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" s="7" t="s">
         <v>10</v>
       </c>
@@ -27915,7 +27921,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" s="7" t="s">
         <v>103</v>
       </c>
@@ -27946,7 +27952,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" s="7" t="s">
         <v>103</v>
       </c>
@@ -27977,7 +27983,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" s="7" t="s">
         <v>103</v>
       </c>
@@ -28006,7 +28012,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" s="7" t="s">
         <v>10</v>
       </c>
@@ -28039,7 +28045,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" s="7" t="s">
         <v>10</v>
       </c>
@@ -28072,7 +28078,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" s="7" t="s">
         <v>10</v>
       </c>
@@ -28105,7 +28111,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" s="7" t="s">
         <v>10</v>
       </c>
@@ -28138,7 +28144,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" s="7" t="s">
         <v>103</v>
       </c>
@@ -28169,7 +28175,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" s="7" t="s">
         <v>103</v>
       </c>
@@ -28198,7 +28204,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" s="7" t="s">
         <v>103</v>
       </c>
@@ -28229,7 +28235,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" s="7" t="s">
         <v>103</v>
       </c>
@@ -28258,7 +28264,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" s="7" t="s">
         <v>10</v>
       </c>
@@ -28291,7 +28297,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" s="7" t="s">
         <v>10</v>
       </c>
@@ -28324,7 +28330,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" s="7" t="s">
         <v>103</v>
       </c>
@@ -28353,7 +28359,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" s="7" t="s">
         <v>103</v>
       </c>
@@ -28382,7 +28388,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" s="7" t="s">
         <v>10</v>
       </c>
@@ -28415,7 +28421,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" s="7" t="s">
         <v>10</v>
       </c>
@@ -28448,7 +28454,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" s="7" t="s">
         <v>10</v>
       </c>
@@ -28481,7 +28487,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" s="7" t="s">
         <v>103</v>
       </c>
@@ -28512,7 +28518,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" s="7" t="s">
         <v>103</v>
       </c>
@@ -28543,7 +28549,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" s="7" t="s">
         <v>10</v>
       </c>
@@ -28576,7 +28582,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" s="7" t="s">
         <v>10</v>
       </c>
@@ -28609,7 +28615,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" s="7" t="s">
         <v>10</v>
       </c>
@@ -28642,7 +28648,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" s="7" t="s">
         <v>10</v>
       </c>
@@ -28675,7 +28681,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" s="7" t="s">
         <v>103</v>
       </c>
@@ -28706,7 +28712,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" s="7" t="s">
         <v>103</v>
       </c>
@@ -28737,7 +28743,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" s="7" t="s">
         <v>103</v>
       </c>
@@ -28768,7 +28774,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" s="7" t="s">
         <v>10</v>
       </c>
@@ -28803,7 +28809,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" s="7" t="s">
         <v>103</v>
       </c>
@@ -28834,7 +28840,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" s="7" t="s">
         <v>10</v>
       </c>
@@ -28867,7 +28873,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" s="7" t="s">
         <v>10</v>
       </c>
@@ -28898,7 +28904,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" s="7" t="s">
         <v>10</v>
       </c>
@@ -28931,7 +28937,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" s="7" t="s">
         <v>103</v>
       </c>
@@ -28960,7 +28966,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" s="7" t="s">
         <v>10</v>
       </c>
@@ -28993,7 +28999,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830" s="7" t="s">
         <v>10</v>
       </c>
@@ -29026,7 +29032,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" s="7" t="s">
         <v>10</v>
       </c>
@@ -29059,7 +29065,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832" s="7" t="s">
         <v>103</v>
       </c>
@@ -29090,7 +29096,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" s="7" t="s">
         <v>10</v>
       </c>
@@ -29123,7 +29129,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" s="7" t="s">
         <v>10</v>
       </c>
@@ -29156,7 +29162,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" s="7" t="s">
         <v>10</v>
       </c>
@@ -29189,7 +29195,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" s="7" t="s">
         <v>10</v>
       </c>
@@ -29222,7 +29228,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" s="7" t="s">
         <v>10</v>
       </c>
@@ -29255,7 +29261,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" s="7" t="s">
         <v>10</v>
       </c>
@@ -29288,7 +29294,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" s="7" t="s">
         <v>103</v>
       </c>
@@ -29319,7 +29325,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" s="7" t="s">
         <v>103</v>
       </c>
@@ -29348,7 +29354,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" s="7" t="s">
         <v>10</v>
       </c>
@@ -29383,7 +29389,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" s="7" t="s">
         <v>10</v>
       </c>
@@ -29416,7 +29422,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" s="7" t="s">
         <v>10</v>
       </c>
@@ -29449,7 +29455,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" s="7" t="s">
         <v>10</v>
       </c>
@@ -29482,7 +29488,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" s="7" t="s">
         <v>10</v>
       </c>
@@ -29515,7 +29521,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" s="7" t="s">
         <v>10</v>
       </c>
@@ -29548,7 +29554,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" s="7" t="s">
         <v>10</v>
       </c>
@@ -29581,7 +29587,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" s="7" t="s">
         <v>103</v>
       </c>
@@ -29612,7 +29618,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849" s="7" t="s">
         <v>10</v>
       </c>
@@ -29645,7 +29651,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850" s="7" t="s">
         <v>10</v>
       </c>
@@ -29678,7 +29684,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851" s="7" t="s">
         <v>10</v>
       </c>
@@ -29711,7 +29717,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" s="7" t="s">
         <v>103</v>
       </c>
@@ -29742,14 +29748,14 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B853" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C853" s="8" t="s">
+      <c r="C853" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D853" s="8" t="s">
@@ -29775,7 +29781,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854" s="7" t="s">
         <v>10</v>
       </c>
@@ -29808,7 +29814,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" s="7" t="s">
         <v>10</v>
       </c>
@@ -29841,7 +29847,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856" s="7" t="s">
         <v>103</v>
       </c>
@@ -29872,7 +29878,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" s="7" t="s">
         <v>10</v>
       </c>
@@ -29903,7 +29909,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858" s="7" t="s">
         <v>10</v>
       </c>
@@ -29936,7 +29942,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859" s="7" t="s">
         <v>10</v>
       </c>
@@ -29969,7 +29975,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" s="7" t="s">
         <v>10</v>
       </c>
@@ -30002,7 +30008,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861" s="7" t="s">
         <v>10</v>
       </c>
@@ -30035,7 +30041,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" s="7" t="s">
         <v>10</v>
       </c>
@@ -30068,7 +30074,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863" s="7" t="s">
         <v>10</v>
       </c>
@@ -30101,7 +30107,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864" s="7" t="s">
         <v>10</v>
       </c>
@@ -30134,7 +30140,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865" s="7" t="s">
         <v>10</v>
       </c>
@@ -30169,7 +30175,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866" s="7" t="s">
         <v>10</v>
       </c>
@@ -30202,7 +30208,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867" s="7" t="s">
         <v>10</v>
       </c>
@@ -30235,7 +30241,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868" s="7" t="s">
         <v>10</v>
       </c>
@@ -30268,7 +30274,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869" s="7" t="s">
         <v>103</v>
       </c>
@@ -30299,7 +30305,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A870" s="7" t="s">
         <v>10</v>
       </c>
@@ -30330,7 +30336,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871" s="7" t="s">
         <v>10</v>
       </c>
@@ -30363,7 +30369,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A872" s="7" t="s">
         <v>103</v>
       </c>
@@ -30392,7 +30398,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A873" s="7" t="s">
         <v>103</v>
       </c>
@@ -30423,7 +30429,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A874" s="7" t="s">
         <v>103</v>
       </c>
@@ -30454,7 +30460,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A875" s="7" t="s">
         <v>10</v>
       </c>
@@ -30487,7 +30493,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A876" s="7" t="s">
         <v>103</v>
       </c>
@@ -30516,7 +30522,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A877" s="7" t="s">
         <v>10</v>
       </c>
@@ -30551,7 +30557,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A878" s="7" t="s">
         <v>103</v>
       </c>
@@ -30582,7 +30588,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A879" s="7" t="s">
         <v>10</v>
       </c>
@@ -30617,7 +30623,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A880" s="7" t="s">
         <v>10</v>
       </c>
@@ -30652,7 +30658,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A881" s="7" t="s">
         <v>10</v>
       </c>
@@ -30687,7 +30693,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A882" s="7" t="s">
         <v>103</v>
       </c>
@@ -30716,7 +30722,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A883" s="7" t="s">
         <v>103</v>
       </c>
@@ -30745,7 +30751,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A884" s="7" t="s">
         <v>103</v>
       </c>
@@ -30774,7 +30780,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A885" s="7" t="s">
         <v>103</v>
       </c>
@@ -30803,7 +30809,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A886" s="7" t="s">
         <v>10</v>
       </c>
@@ -30836,7 +30842,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A887" s="7" t="s">
         <v>10</v>
       </c>
@@ -30869,7 +30875,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A888" s="7" t="s">
         <v>10</v>
       </c>
@@ -30902,7 +30908,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A889" s="7" t="s">
         <v>10</v>
       </c>
@@ -30935,7 +30941,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A890" s="7" t="s">
         <v>10</v>
       </c>
@@ -30968,7 +30974,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A891" s="7" t="s">
         <v>10</v>
       </c>
@@ -31001,7 +31007,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A892" s="7" t="s">
         <v>10</v>
       </c>
@@ -31034,7 +31040,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A893" s="7" t="s">
         <v>10</v>
       </c>
@@ -31067,7 +31073,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A894" s="7" t="s">
         <v>10</v>
       </c>
@@ -31100,7 +31106,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="895" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A895" s="7" t="s">
         <v>10</v>
       </c>
@@ -31133,7 +31139,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A896" s="7" t="s">
         <v>10</v>
       </c>
@@ -31166,7 +31172,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A897" s="7" t="s">
         <v>10</v>
       </c>
@@ -31199,7 +31205,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="898" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A898" s="7" t="s">
         <v>10</v>
       </c>
@@ -31232,7 +31238,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A899" s="7" t="s">
         <v>10</v>
       </c>
@@ -31265,7 +31271,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A900" s="7" t="s">
         <v>10</v>
       </c>
@@ -31298,7 +31304,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A901" s="7" t="s">
         <v>10</v>
       </c>
@@ -31331,7 +31337,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A902" s="7" t="s">
         <v>10</v>
       </c>
@@ -31364,7 +31370,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A903" s="7" t="s">
         <v>10</v>
       </c>
@@ -31397,7 +31403,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A904" s="7" t="s">
         <v>10</v>
       </c>
@@ -31430,7 +31436,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A905" s="7" t="s">
         <v>10</v>
       </c>
@@ -31463,7 +31469,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="906" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A906" s="7" t="s">
         <v>10</v>
       </c>
@@ -31496,7 +31502,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="907" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A907" s="7" t="s">
         <v>103</v>
       </c>
@@ -31525,7 +31531,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="908" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A908" s="7" t="s">
         <v>10</v>
       </c>
@@ -31558,7 +31564,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="909" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A909" s="7" t="s">
         <v>10</v>
       </c>
@@ -31593,7 +31599,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="910" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A910" s="7" t="s">
         <v>10</v>
       </c>
@@ -31626,7 +31632,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="911" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A911" s="7" t="s">
         <v>10</v>
       </c>
@@ -31659,7 +31665,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="912" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A912" s="7" t="s">
         <v>10</v>
       </c>
@@ -31692,7 +31698,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="913" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A913" s="7" t="s">
         <v>103</v>
       </c>
@@ -31721,7 +31727,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A914" s="7" t="s">
         <v>10</v>
       </c>
@@ -31754,7 +31760,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="915" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A915" s="7" t="s">
         <v>10</v>
       </c>
@@ -31787,7 +31793,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="916" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A916" s="7" t="s">
         <v>10</v>
       </c>
@@ -31822,7 +31828,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="917" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A917" s="7" t="s">
         <v>10</v>
       </c>
@@ -31855,7 +31861,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A918" s="7" t="s">
         <v>103</v>
       </c>
@@ -31884,7 +31890,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="919" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A919" s="7" t="s">
         <v>10</v>
       </c>
@@ -31917,7 +31923,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="920" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A920" s="7" t="s">
         <v>103</v>
       </c>
@@ -31946,7 +31952,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="921" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A921" s="7" t="s">
         <v>103</v>
       </c>
@@ -31975,7 +31981,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A922" s="7" t="s">
         <v>10</v>
       </c>
@@ -32008,7 +32014,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="923" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A923" s="7" t="s">
         <v>10</v>
       </c>
@@ -32041,7 +32047,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A924" s="7" t="s">
         <v>103</v>
       </c>
@@ -32070,7 +32076,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="925" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A925" s="7" t="s">
         <v>103</v>
       </c>
@@ -32099,7 +32105,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A926" s="7" t="s">
         <v>10</v>
       </c>
@@ -32132,7 +32138,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="927" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A927" s="7" t="s">
         <v>10</v>
       </c>
@@ -32165,7 +32171,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="928" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A928" s="7" t="s">
         <v>10</v>
       </c>
@@ -32198,7 +32204,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="929" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A929" s="7" t="s">
         <v>10</v>
       </c>
@@ -32231,7 +32237,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A930" s="7" t="s">
         <v>10</v>
       </c>
@@ -32264,7 +32270,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A931" s="7" t="s">
         <v>10</v>
       </c>
@@ -32297,7 +32303,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A932" s="7" t="s">
         <v>10</v>
       </c>
@@ -32330,7 +32336,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A933" s="7" t="s">
         <v>10</v>
       </c>
@@ -32363,7 +32369,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A934" s="7" t="s">
         <v>10</v>
       </c>
@@ -32396,7 +32402,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A935" s="7" t="s">
         <v>10</v>
       </c>
@@ -32429,7 +32435,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A936" s="7" t="s">
         <v>103</v>
       </c>
@@ -32458,7 +32464,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A937" s="7" t="s">
         <v>103</v>
       </c>
@@ -32487,7 +32493,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A938" s="7" t="s">
         <v>103</v>
       </c>
@@ -32518,7 +32524,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A939" s="7" t="s">
         <v>103</v>
       </c>
@@ -32547,7 +32553,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A940" s="7" t="s">
         <v>103</v>
       </c>
@@ -32576,7 +32582,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="941" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A941" s="7" t="s">
         <v>103</v>
       </c>
@@ -32605,7 +32611,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="942" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A942" s="7" t="s">
         <v>10</v>
       </c>
@@ -32638,7 +32644,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="943" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A943" s="7" t="s">
         <v>10</v>
       </c>
@@ -32671,7 +32677,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="944" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A944" s="7" t="s">
         <v>10</v>
       </c>
@@ -32704,7 +32710,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="945" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A945" s="7" t="s">
         <v>10</v>
       </c>
@@ -32737,7 +32743,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A946" s="7" t="s">
         <v>103</v>
       </c>
@@ -32766,7 +32772,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A947" s="7" t="s">
         <v>10</v>
       </c>
@@ -32799,7 +32805,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A948" s="7" t="s">
         <v>10</v>
       </c>
@@ -32832,7 +32838,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A949" s="7" t="s">
         <v>10</v>
       </c>
@@ -32865,7 +32871,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A950" s="7" t="s">
         <v>10</v>
       </c>
@@ -32898,7 +32904,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A951" s="7" t="s">
         <v>10</v>
       </c>
@@ -32931,7 +32937,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A952" s="7" t="s">
         <v>10</v>
       </c>
@@ -32964,7 +32970,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A953" s="7" t="s">
         <v>10</v>
       </c>
@@ -32999,7 +33005,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A954" s="7" t="s">
         <v>10</v>
       </c>
@@ -33032,7 +33038,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="955" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A955" s="7" t="s">
         <v>10</v>
       </c>
@@ -33065,7 +33071,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="956" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A956" s="7" t="s">
         <v>103</v>
       </c>
@@ -33094,7 +33100,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="957" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A957" s="7" t="s">
         <v>103</v>
       </c>
@@ -33125,7 +33131,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="958" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A958" s="7" t="s">
         <v>10</v>
       </c>
@@ -33158,7 +33164,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="959" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A959" s="7" t="s">
         <v>10</v>
       </c>
@@ -33191,7 +33197,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="960" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A960" s="7" t="s">
         <v>10</v>
       </c>
@@ -33224,7 +33230,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="961" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A961" s="7" t="s">
         <v>103</v>
       </c>
@@ -33255,7 +33261,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="962" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A962" s="7" t="s">
         <v>10</v>
       </c>
@@ -33288,7 +33294,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="963" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A963" s="7" t="s">
         <v>10</v>
       </c>
@@ -33321,7 +33327,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="964" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A964" s="7" t="s">
         <v>10</v>
       </c>
@@ -33356,7 +33362,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="965" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A965" s="7" t="s">
         <v>10</v>
       </c>
@@ -33391,7 +33397,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="966" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A966" s="7" t="s">
         <v>103</v>
       </c>
@@ -33420,7 +33426,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="967" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A967" s="7" t="s">
         <v>10</v>
       </c>
@@ -33453,7 +33459,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="968" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A968" s="7" t="s">
         <v>10</v>
       </c>
@@ -33486,7 +33492,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="969" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A969" s="7" t="s">
         <v>10</v>
       </c>
@@ -33521,7 +33527,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="970" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A970" s="7" t="s">
         <v>10</v>
       </c>
@@ -33554,7 +33560,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="971" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A971" s="7" t="s">
         <v>10</v>
       </c>
@@ -33587,7 +33593,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="972" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A972" s="7" t="s">
         <v>10</v>
       </c>
@@ -33620,7 +33626,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="973" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A973" s="7" t="s">
         <v>10</v>
       </c>
@@ -33653,7 +33659,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="974" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A974" s="7" t="s">
         <v>10</v>
       </c>
@@ -33686,7 +33692,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="975" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A975" s="7" t="s">
         <v>10</v>
       </c>
@@ -33719,7 +33725,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="976" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A976" s="7" t="s">
         <v>10</v>
       </c>
@@ -33754,7 +33760,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="977" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A977" s="7" t="s">
         <v>103</v>
       </c>
@@ -33783,7 +33789,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="978" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A978" s="7" t="s">
         <v>103</v>
       </c>
@@ -33814,7 +33820,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="979" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A979" s="7" t="s">
         <v>10</v>
       </c>
@@ -33847,7 +33853,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="980" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A980" s="7" t="s">
         <v>10</v>
       </c>
@@ -33880,7 +33886,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="981" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A981" s="7" t="s">
         <v>10</v>
       </c>
@@ -33913,7 +33919,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="982" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A982" s="7" t="s">
         <v>103</v>
       </c>
@@ -33942,7 +33948,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="983" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A983" s="7" t="s">
         <v>10</v>
       </c>
@@ -33975,7 +33981,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="984" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A984" s="7" t="s">
         <v>103</v>
       </c>
@@ -34004,7 +34010,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="985" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A985" s="7" t="s">
         <v>103</v>
       </c>
@@ -34033,7 +34039,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="986" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A986" s="7" t="s">
         <v>10</v>
       </c>
@@ -34066,7 +34072,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="987" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A987" s="7" t="s">
         <v>103</v>
       </c>
@@ -34095,7 +34101,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="988" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A988" s="7" t="s">
         <v>103</v>
       </c>
@@ -34124,7 +34130,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="989" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A989" s="7" t="s">
         <v>10</v>
       </c>
@@ -34157,7 +34163,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="990" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A990" s="7" t="s">
         <v>103</v>
       </c>
@@ -34186,7 +34192,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="991" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A991" s="7" t="s">
         <v>10</v>
       </c>
@@ -34221,7 +34227,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="992" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A992" s="7" t="s">
         <v>10</v>
       </c>
@@ -34254,7 +34260,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="993" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A993" s="7" t="s">
         <v>10</v>
       </c>
@@ -34287,7 +34293,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="994" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A994" s="7" t="s">
         <v>10</v>
       </c>
@@ -34320,7 +34326,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="995" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A995" s="7" t="s">
         <v>103</v>
       </c>
@@ -34351,7 +34357,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="996" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A996" s="7" t="s">
         <v>10</v>
       </c>
@@ -34384,7 +34390,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="997" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A997" s="7" t="s">
         <v>103</v>
       </c>
@@ -34413,7 +34419,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="998" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A998" s="7" t="s">
         <v>10</v>
       </c>
@@ -34446,7 +34452,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="999" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A999" s="7" t="s">
         <v>10</v>
       </c>
@@ -34479,7 +34485,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1000" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="7" t="s">
         <v>10</v>
       </c>
@@ -34512,7 +34518,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1001" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="7" t="s">
         <v>10</v>
       </c>
@@ -34545,7 +34551,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1002" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="7" t="s">
         <v>10</v>
       </c>
@@ -34578,7 +34584,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1003" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1003" s="7" t="s">
         <v>10</v>
       </c>
@@ -34613,7 +34619,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1004" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1004" s="7" t="s">
         <v>10</v>
       </c>
@@ -34646,7 +34652,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1005" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1005" s="7" t="s">
         <v>103</v>
       </c>
@@ -34675,7 +34681,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1006" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1006" s="7" t="s">
         <v>10</v>
       </c>
@@ -34708,7 +34714,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1007" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1007" s="7" t="s">
         <v>10</v>
       </c>
@@ -34741,7 +34747,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1008" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1008" s="7" t="s">
         <v>10</v>
       </c>
@@ -34774,7 +34780,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1009" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1009" s="7" t="s">
         <v>10</v>
       </c>
@@ -34807,7 +34813,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1010" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1010" s="7" t="s">
         <v>103</v>
       </c>
@@ -34838,7 +34844,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1011" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1011" s="7" t="s">
         <v>10</v>
       </c>
@@ -34871,7 +34877,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1012" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1012" s="7" t="s">
         <v>103</v>
       </c>
@@ -39916,7 +39922,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1165" s="7" t="s">
         <v>103</v>
       </c>
@@ -39947,7 +39953,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1166" s="7" t="s">
         <v>10</v>
       </c>
@@ -39980,7 +39986,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1167" s="7" t="s">
         <v>10</v>
       </c>
@@ -40013,7 +40019,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1168" s="7" t="s">
         <v>10</v>
       </c>
@@ -40046,7 +40052,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1169" s="7" t="s">
         <v>10</v>
       </c>
@@ -40079,7 +40085,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1170" s="7" t="s">
         <v>103</v>
       </c>
@@ -40108,7 +40114,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1171" s="7" t="s">
         <v>103</v>
       </c>
@@ -40137,7 +40143,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1172" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1172" s="7" t="s">
         <v>103</v>
       </c>
@@ -40166,7 +40172,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1173" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1173" s="7" t="s">
         <v>103</v>
       </c>
@@ -40195,7 +40201,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1174" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1174" s="7" t="s">
         <v>103</v>
       </c>
@@ -40226,7 +40232,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1175" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1175" s="7" t="s">
         <v>10</v>
       </c>
@@ -40259,7 +40265,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1176" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1176" s="7" t="s">
         <v>10</v>
       </c>
@@ -40292,7 +40298,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1177" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1177" s="7" t="s">
         <v>10</v>
       </c>
@@ -40325,7 +40331,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1178" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1178" s="7" t="s">
         <v>10</v>
       </c>
@@ -40358,7 +40364,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1179" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1179" s="7" t="s">
         <v>103</v>
       </c>
@@ -40387,7 +40393,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1180" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1180" s="7" t="s">
         <v>103</v>
       </c>
@@ -40418,7 +40424,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1181" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1181" s="7" t="s">
         <v>103</v>
       </c>
@@ -40449,7 +40455,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1182" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1182" s="7" t="s">
         <v>103</v>
       </c>
@@ -40478,7 +40484,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1183" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1183" s="7" t="s">
         <v>10</v>
       </c>
@@ -40511,7 +40517,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1184" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1184" s="7" t="s">
         <v>10</v>
       </c>
@@ -40544,7 +40550,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1185" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1185" s="7" t="s">
         <v>10</v>
       </c>
@@ -40577,7 +40583,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1186" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1186" s="7" t="s">
         <v>10</v>
       </c>
@@ -40610,7 +40616,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1187" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1187" s="7" t="s">
         <v>10</v>
       </c>
@@ -40643,7 +40649,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1188" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1188" s="7" t="s">
         <v>103</v>
       </c>
@@ -40672,7 +40678,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1189" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1189" s="7" t="s">
         <v>103</v>
       </c>
@@ -40703,7 +40709,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1190" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1190" s="7" t="s">
         <v>103</v>
       </c>
@@ -40734,7 +40740,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1191" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1191" s="7" t="s">
         <v>103</v>
       </c>
@@ -40763,7 +40769,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1192" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1192" s="7" t="s">
         <v>103</v>
       </c>
@@ -40792,7 +40798,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1193" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1193" s="7" t="s">
         <v>10</v>
       </c>
@@ -40825,7 +40831,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1194" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1194" s="7" t="s">
         <v>10</v>
       </c>
@@ -40858,7 +40864,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1195" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1195" s="7" t="s">
         <v>10</v>
       </c>
@@ -40891,7 +40897,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1196" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1196" s="7" t="s">
         <v>10</v>
       </c>
@@ -40924,7 +40930,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1197" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1197" s="7" t="s">
         <v>10</v>
       </c>
@@ -40957,7 +40963,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1198" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1198" s="7" t="s">
         <v>10</v>
       </c>
@@ -40992,7 +40998,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1199" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1199" s="7" t="s">
         <v>10</v>
       </c>
@@ -41027,7 +41033,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1200" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1200" s="7" t="s">
         <v>10</v>
       </c>
@@ -41060,7 +41066,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1201" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1201" s="7" t="s">
         <v>10</v>
       </c>
@@ -41093,7 +41099,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1202" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1202" s="7" t="s">
         <v>103</v>
       </c>
@@ -41122,7 +41128,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1203" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1203" s="7" t="s">
         <v>103</v>
       </c>
@@ -41153,7 +41159,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1204" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1204" s="7" t="s">
         <v>10</v>
       </c>
@@ -41186,7 +41192,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1205" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1205" s="7" t="s">
         <v>10</v>
       </c>
@@ -41219,7 +41225,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1206" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1206" s="7" t="s">
         <v>10</v>
       </c>
@@ -41252,7 +41258,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1207" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1207" s="7" t="s">
         <v>10</v>
       </c>
@@ -41285,7 +41291,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1208" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1208" s="7" t="s">
         <v>10</v>
       </c>
@@ -41320,7 +41326,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1209" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1209" s="7" t="s">
         <v>10</v>
       </c>
@@ -41353,7 +41359,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1210" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1210" s="7" t="s">
         <v>10</v>
       </c>
@@ -41388,7 +41394,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1211" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1211" s="7" t="s">
         <v>10</v>
       </c>
@@ -41421,7 +41427,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1212" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1212" s="7" t="s">
         <v>10</v>
       </c>
@@ -41454,7 +41460,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1213" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1213" s="7" t="s">
         <v>10</v>
       </c>
@@ -41489,7 +41495,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1214" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1214" s="7" t="s">
         <v>10</v>
       </c>
@@ -41522,7 +41528,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1215" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1215" s="7" t="s">
         <v>103</v>
       </c>
@@ -41551,7 +41557,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1216" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1216" s="7" t="s">
         <v>10</v>
       </c>
@@ -41586,7 +41592,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1217" s="7" t="s">
         <v>10</v>
       </c>
@@ -41619,7 +41625,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1218" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1218" s="7" t="s">
         <v>10</v>
       </c>
@@ -41652,7 +41658,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1219" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1219" s="7" t="s">
         <v>10</v>
       </c>
@@ -41685,7 +41691,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1220" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1220" s="7" t="s">
         <v>103</v>
       </c>
@@ -41716,7 +41722,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1221" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1221" s="7" t="s">
         <v>10</v>
       </c>
@@ -41749,7 +41755,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1222" s="7" t="s">
         <v>10</v>
       </c>
@@ -41782,7 +41788,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1223" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1223" s="7" t="s">
         <v>10</v>
       </c>
@@ -41817,7 +41823,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1224" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1224" s="7" t="s">
         <v>10</v>
       </c>
@@ -41850,7 +41856,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1225" s="7" t="s">
         <v>10</v>
       </c>
@@ -41885,7 +41891,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1226" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1226" s="7" t="s">
         <v>10</v>
       </c>
@@ -41920,7 +41926,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1227" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1227" s="7" t="s">
         <v>103</v>
       </c>
@@ -41951,7 +41957,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1228" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1228" s="7" t="s">
         <v>10</v>
       </c>
@@ -41984,7 +41990,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1229" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1229" s="7" t="s">
         <v>103</v>
       </c>
@@ -42013,7 +42019,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1230" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1230" s="7" t="s">
         <v>103</v>
       </c>
@@ -42044,7 +42050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1231" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1231" s="7" t="s">
         <v>103</v>
       </c>
@@ -42073,7 +42079,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1232" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1232" s="7" t="s">
         <v>103</v>
       </c>
@@ -42102,7 +42108,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1233" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1233" s="7" t="s">
         <v>10</v>
       </c>
@@ -42135,7 +42141,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1234" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1234" s="7" t="s">
         <v>103</v>
       </c>
@@ -42166,7 +42172,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1235" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1235" s="7" t="s">
         <v>103</v>
       </c>
@@ -42195,7 +42201,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1236" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1236" s="7" t="s">
         <v>10</v>
       </c>
@@ -42228,7 +42234,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1237" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1237" s="7" t="s">
         <v>10</v>
       </c>
@@ -42261,7 +42267,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1238" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1238" s="7" t="s">
         <v>103</v>
       </c>
@@ -42292,7 +42298,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1239" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1239" s="7" t="s">
         <v>10</v>
       </c>
@@ -42325,7 +42331,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1240" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1240" s="7" t="s">
         <v>103</v>
       </c>
@@ -42356,7 +42362,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1241" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1241" s="7" t="s">
         <v>10</v>
       </c>
@@ -42389,7 +42395,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1242" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1242" s="7" t="s">
         <v>103</v>
       </c>
@@ -43408,7 +43414,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1273" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1273" s="7" t="s">
         <v>10</v>
       </c>
@@ -43441,7 +43447,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1274" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1274" s="7" t="s">
         <v>103</v>
       </c>
@@ -43472,7 +43478,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1275" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1275" s="7" t="s">
         <v>103</v>
       </c>
@@ -43503,7 +43509,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1276" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1276" s="7" t="s">
         <v>10</v>
       </c>
@@ -43536,7 +43542,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1277" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1277" s="7" t="s">
         <v>10</v>
       </c>
@@ -43569,7 +43575,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1278" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1278" s="7" t="s">
         <v>10</v>
       </c>
@@ -43602,7 +43608,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1279" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1279" s="7" t="s">
         <v>236</v>
       </c>
@@ -43633,7 +43639,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1280" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1280" s="7" t="s">
         <v>103</v>
       </c>
@@ -43664,7 +43670,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1281" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1281" s="7" t="s">
         <v>103</v>
       </c>
@@ -43693,7 +43699,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1282" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1282" s="7" t="s">
         <v>103</v>
       </c>
@@ -43722,7 +43728,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1283" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1283" s="7" t="s">
         <v>103</v>
       </c>
@@ -43751,7 +43757,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1284" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1284" s="7" t="s">
         <v>10</v>
       </c>
@@ -43784,7 +43790,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1285" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1285" s="7" t="s">
         <v>10</v>
       </c>
@@ -43819,7 +43825,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1286" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1286" s="7" t="s">
         <v>10</v>
       </c>
@@ -43852,7 +43858,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1287" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1287" s="7" t="s">
         <v>10</v>
       </c>
@@ -43885,7 +43891,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1288" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1288" s="7" t="s">
         <v>10</v>
       </c>
@@ -43916,7 +43922,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1289" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1289" s="7" t="s">
         <v>103</v>
       </c>
@@ -43947,7 +43953,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1290" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1290" s="7" t="s">
         <v>103</v>
       </c>
@@ -43978,7 +43984,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1291" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1291" s="7" t="s">
         <v>10</v>
       </c>
@@ -44011,7 +44017,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1292" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1292" s="7" t="s">
         <v>103</v>
       </c>
@@ -44040,7 +44046,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1293" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1293" s="7" t="s">
         <v>10</v>
       </c>
@@ -44073,7 +44079,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1294" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1294" s="7" t="s">
         <v>103</v>
       </c>
@@ -44102,7 +44108,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1295" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1295" s="7" t="s">
         <v>103</v>
       </c>
@@ -44131,7 +44137,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1296" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1296" s="7" t="s">
         <v>10</v>
       </c>
@@ -44164,7 +44170,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1297" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1297" s="7" t="s">
         <v>10</v>
       </c>
@@ -44197,7 +44203,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1298" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1298" s="7" t="s">
         <v>103</v>
       </c>
@@ -44226,7 +44232,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1299" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1299" s="7" t="s">
         <v>10</v>
       </c>
@@ -44259,7 +44265,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1300" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1300" s="7" t="s">
         <v>103</v>
       </c>
@@ -44288,7 +44294,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1301" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1301" s="7" t="s">
         <v>10</v>
       </c>
@@ -44321,7 +44327,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1302" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1302" s="7" t="s">
         <v>103</v>
       </c>
@@ -44350,7 +44356,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1303" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1303" s="7" t="s">
         <v>103</v>
       </c>
@@ -44379,7 +44385,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1304" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1304" s="7" t="s">
         <v>10</v>
       </c>
@@ -44412,7 +44418,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1305" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1305" s="7" t="s">
         <v>10</v>
       </c>
@@ -44445,7 +44451,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1306" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1306" s="7" t="s">
         <v>103</v>
       </c>
@@ -44476,7 +44482,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1307" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1307" s="7" t="s">
         <v>103</v>
       </c>
@@ -45778,7 +45784,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1349" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1349" s="7" t="s">
         <v>10</v>
       </c>
@@ -45811,7 +45817,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1350" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1350" s="7" t="s">
         <v>103</v>
       </c>
@@ -45840,7 +45846,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1351" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1351" s="7" t="s">
         <v>10</v>
       </c>
@@ -45873,7 +45879,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1352" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1352" s="7" t="s">
         <v>103</v>
       </c>
@@ -45902,7 +45908,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1353" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1353" s="7" t="s">
         <v>103</v>
       </c>
@@ -45931,7 +45937,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1354" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1354" s="7" t="s">
         <v>10</v>
       </c>
@@ -45964,7 +45970,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1355" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1355" s="7" t="s">
         <v>10</v>
       </c>
@@ -45997,7 +46003,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1356" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1356" s="7" t="s">
         <v>10</v>
       </c>
@@ -46030,7 +46036,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1357" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1357" s="7" t="s">
         <v>10</v>
       </c>
@@ -46063,7 +46069,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1358" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1358" s="7" t="s">
         <v>10</v>
       </c>
@@ -46096,7 +46102,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1359" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1359" s="7" t="s">
         <v>10</v>
       </c>
@@ -46129,7 +46135,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1360" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1360" s="7" t="s">
         <v>10</v>
       </c>
@@ -46162,7 +46168,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1361" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1361" s="7" t="s">
         <v>103</v>
       </c>
@@ -46193,7 +46199,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1362" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1362" s="7" t="s">
         <v>10</v>
       </c>
@@ -46228,7 +46234,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1363" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1363" s="7" t="s">
         <v>103</v>
       </c>
@@ -46259,7 +46265,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1364" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1364" s="7" t="s">
         <v>103</v>
       </c>
@@ -46290,7 +46296,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1365" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1365" s="7" t="s">
         <v>10</v>
       </c>
@@ -46323,7 +46329,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1366" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1366" s="7" t="s">
         <v>10</v>
       </c>
@@ -46356,7 +46362,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1367" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1367" s="7" t="s">
         <v>10</v>
       </c>
@@ -46389,7 +46395,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1368" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1368" s="7" t="s">
         <v>103</v>
       </c>
@@ -46418,7 +46424,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1369" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1369" s="7" t="s">
         <v>10</v>
       </c>
@@ -46451,7 +46457,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1370" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1370" s="7" t="s">
         <v>10</v>
       </c>
@@ -46484,7 +46490,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1371" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1371" s="7" t="s">
         <v>103</v>
       </c>
@@ -46513,7 +46519,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1372" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1372" s="7" t="s">
         <v>103</v>
       </c>
@@ -46542,7 +46548,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1373" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1373" s="7" t="s">
         <v>103</v>
       </c>
@@ -46571,7 +46577,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1374" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1374" s="7" t="s">
         <v>10</v>
       </c>
@@ -46604,7 +46610,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1375" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1375" s="7" t="s">
         <v>10</v>
       </c>
@@ -46637,7 +46643,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1376" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1376" s="7" t="s">
         <v>10</v>
       </c>
@@ -46670,7 +46676,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1377" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1377" s="7" t="s">
         <v>10</v>
       </c>
@@ -46703,7 +46709,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1378" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1378" s="7" t="s">
         <v>10</v>
       </c>
@@ -46736,7 +46742,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1379" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1379" s="7" t="s">
         <v>10</v>
       </c>
@@ -46769,7 +46775,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1380" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1380" s="7" t="s">
         <v>10</v>
       </c>
@@ -46802,7 +46808,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1381" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1381" s="7" t="s">
         <v>10</v>
       </c>
@@ -46835,7 +46841,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1382" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1382" s="7" t="s">
         <v>10</v>
       </c>
@@ -46868,7 +46874,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1383" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1383" s="7" t="s">
         <v>10</v>
       </c>
@@ -46901,7 +46907,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1384" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1384" s="7" t="s">
         <v>10</v>
       </c>
@@ -46934,7 +46940,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1385" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1385" s="7" t="s">
         <v>10</v>
       </c>
@@ -46967,7 +46973,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1386" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1386" s="7" t="s">
         <v>10</v>
       </c>
@@ -47000,7 +47006,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1387" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1387" s="7" t="s">
         <v>10</v>
       </c>
@@ -47033,7 +47039,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1388" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1388" s="7" t="s">
         <v>10</v>
       </c>
@@ -47066,7 +47072,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1389" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1389" s="7" t="s">
         <v>10</v>
       </c>
@@ -47099,7 +47105,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1390" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1390" s="7" t="s">
         <v>10</v>
       </c>
@@ -47132,7 +47138,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1391" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1391" s="7" t="s">
         <v>10</v>
       </c>
@@ -47165,7 +47171,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1392" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1392" s="7" t="s">
         <v>10</v>
       </c>
@@ -47198,7 +47204,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1393" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1393" s="7" t="s">
         <v>10</v>
       </c>
@@ -47231,7 +47237,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1394" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1394" s="7" t="s">
         <v>103</v>
       </c>
@@ -47260,7 +47266,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1395" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1395" s="7" t="s">
         <v>103</v>
       </c>
@@ -47289,7 +47295,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1396" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1396" s="7" t="s">
         <v>10</v>
       </c>
@@ -47322,7 +47328,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1397" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1397" s="7" t="s">
         <v>10</v>
       </c>
@@ -47355,7 +47361,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1398" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1398" s="7" t="s">
         <v>10</v>
       </c>
@@ -47388,7 +47394,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1399" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1399" s="7" t="s">
         <v>103</v>
       </c>
@@ -47417,7 +47423,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1400" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1400" s="7" t="s">
         <v>103</v>
       </c>
@@ -47446,7 +47452,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1401" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1401" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1401" s="7" t="s">
         <v>10</v>
       </c>
@@ -47479,7 +47485,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1402" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1402" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1402" s="7" t="s">
         <v>10</v>
       </c>
@@ -47512,7 +47518,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1403" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1403" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1403" s="7" t="s">
         <v>10</v>
       </c>
@@ -47545,7 +47551,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1404" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1404" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1404" s="7" t="s">
         <v>10</v>
       </c>
@@ -47578,7 +47584,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1405" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1405" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1405" s="7" t="s">
         <v>10</v>
       </c>
@@ -47611,7 +47617,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1406" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1406" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1406" s="7" t="s">
         <v>103</v>
       </c>
@@ -47640,7 +47646,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1407" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1407" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1407" s="7" t="s">
         <v>10</v>
       </c>
@@ -47673,7 +47679,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1408" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1408" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1408" s="7" t="s">
         <v>103</v>
       </c>
@@ -47702,7 +47708,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1409" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1409" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1409" s="7" t="s">
         <v>10</v>
       </c>
@@ -47735,7 +47741,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1410" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1410" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1410" s="7" t="s">
         <v>103</v>
       </c>
@@ -47764,7 +47770,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1411" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1411" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1411" s="7" t="s">
         <v>10</v>
       </c>
@@ -47797,7 +47803,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1412" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1412" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1412" s="7" t="s">
         <v>10</v>
       </c>
@@ -47830,7 +47836,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1413" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1413" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1413" s="7" t="s">
         <v>10</v>
       </c>
@@ -47863,7 +47869,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1414" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1414" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1414" s="7" t="s">
         <v>103</v>
       </c>
@@ -47906,7 +47912,7 @@
         <v>186</v>
       </c>
       <c r="E1415" s="12">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="F1415" s="13">
         <v>45767</v>
@@ -49245,7 +49251,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1456" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1456" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1456" s="7" t="s">
         <v>10</v>
       </c>
@@ -49278,7 +49284,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1457" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1457" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1457" s="7" t="s">
         <v>10</v>
       </c>
@@ -49311,7 +49317,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1458" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1458" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1458" s="7" t="s">
         <v>10</v>
       </c>
@@ -49344,7 +49350,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1459" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1459" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1459" s="7" t="s">
         <v>10</v>
       </c>
@@ -49377,7 +49383,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1460" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1460" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1460" s="7" t="s">
         <v>103</v>
       </c>
@@ -49408,7 +49414,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1461" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1461" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1461" s="7" t="s">
         <v>10</v>
       </c>
@@ -49441,7 +49447,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1462" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1462" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1462" s="7" t="s">
         <v>10</v>
       </c>
@@ -49474,7 +49480,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1463" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1463" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1463" s="7" t="s">
         <v>10</v>
       </c>
@@ -49507,7 +49513,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1464" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1464" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1464" s="7" t="s">
         <v>103</v>
       </c>
@@ -49536,7 +49542,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1465" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1465" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1465" s="7" t="s">
         <v>10</v>
       </c>
@@ -49569,7 +49575,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1466" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1466" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1466" s="7" t="s">
         <v>10</v>
       </c>
@@ -49602,7 +49608,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1467" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1467" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1467" s="7" t="s">
         <v>10</v>
       </c>
@@ -49635,7 +49641,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1468" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1468" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1468" s="7" t="s">
         <v>10</v>
       </c>
@@ -49668,7 +49674,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1469" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1469" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1469" s="7" t="s">
         <v>103</v>
       </c>
@@ -49697,7 +49703,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1470" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1470" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1470" s="7" t="s">
         <v>103</v>
       </c>
@@ -49726,7 +49732,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1471" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1471" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1471" s="7" t="s">
         <v>10</v>
       </c>
@@ -49759,7 +49765,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1472" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1472" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1472" s="7" t="s">
         <v>10</v>
       </c>
@@ -49792,7 +49798,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1473" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1473" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1473" s="7" t="s">
         <v>10</v>
       </c>
@@ -49823,7 +49829,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1474" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1474" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1474" s="7" t="s">
         <v>10</v>
       </c>
@@ -49856,7 +49862,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1475" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1475" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1475" s="7" t="s">
         <v>10</v>
       </c>
@@ -49889,7 +49895,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1476" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1476" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1476" s="7" t="s">
         <v>10</v>
       </c>
@@ -49922,7 +49928,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1477" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1477" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1477" s="7" t="s">
         <v>103</v>
       </c>
@@ -49951,7 +49957,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1478" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1478" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1478" s="7" t="s">
         <v>10</v>
       </c>
@@ -49984,7 +49990,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1479" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1479" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1479" s="7" t="s">
         <v>10</v>
       </c>
@@ -50017,7 +50023,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1480" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1480" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1480" s="7" t="s">
         <v>10</v>
       </c>
@@ -50050,7 +50056,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1481" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1481" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1481" s="7" t="s">
         <v>103</v>
       </c>
@@ -50079,7 +50085,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1482" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1482" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1482" s="7" t="s">
         <v>10</v>
       </c>
@@ -50112,7 +50118,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1483" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1483" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1483" s="7" t="s">
         <v>103</v>
       </c>
@@ -50141,7 +50147,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1484" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1484" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1484" s="7" t="s">
         <v>103</v>
       </c>
@@ -50170,7 +50176,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1485" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1485" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1485" s="7" t="s">
         <v>103</v>
       </c>
@@ -50199,7 +50205,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1486" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1486" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1486" s="7" t="s">
         <v>10</v>
       </c>
@@ -50232,7 +50238,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1487" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1487" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1487" s="7" t="s">
         <v>103</v>
       </c>
@@ -50261,7 +50267,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1488" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1488" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1488" s="7" t="s">
         <v>103</v>
       </c>
@@ -50290,7 +50296,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1489" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1489" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1489" s="7" t="s">
         <v>103</v>
       </c>
@@ -50319,7 +50325,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1490" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1490" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1490" s="7" t="s">
         <v>10</v>
       </c>
@@ -50352,7 +50358,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1491" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1491" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1491" s="7" t="s">
         <v>10</v>
       </c>
@@ -50385,7 +50391,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1492" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1492" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1492" s="7" t="s">
         <v>103</v>
       </c>
@@ -50414,7 +50420,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1493" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1493" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1493" s="7" t="s">
         <v>10</v>
       </c>
@@ -50447,7 +50453,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1494" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1494" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1494" s="7" t="s">
         <v>10</v>
       </c>
@@ -50480,7 +50486,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1495" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1495" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1495" s="7" t="s">
         <v>10</v>
       </c>
@@ -50513,7 +50519,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1496" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1496" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1496" s="7" t="s">
         <v>10</v>
       </c>
@@ -50546,7 +50552,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1497" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1497" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1497" s="7" t="s">
         <v>103</v>
       </c>
@@ -50575,7 +50581,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1498" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1498" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1498" s="7" t="s">
         <v>10</v>
       </c>
@@ -50608,7 +50614,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1499" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1499" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1499" s="7" t="s">
         <v>10</v>
       </c>
@@ -50641,7 +50647,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1500" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1500" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1500" s="7" t="s">
         <v>10</v>
       </c>
@@ -50674,7 +50680,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1501" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1501" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1501" s="7" t="s">
         <v>10</v>
       </c>
@@ -50707,7 +50713,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1502" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1502" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1502" s="7" t="s">
         <v>10</v>
       </c>
@@ -50740,7 +50746,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1503" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1503" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1503" s="7" t="s">
         <v>10</v>
       </c>
@@ -50773,7 +50779,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1504" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1504" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1504" s="7" t="s">
         <v>10</v>
       </c>
@@ -50806,7 +50812,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1505" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1505" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1505" s="7" t="s">
         <v>10</v>
       </c>
@@ -50839,7 +50845,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1506" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1506" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1506" s="7" t="s">
         <v>103</v>
       </c>
@@ -50868,7 +50874,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1507" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1507" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1507" s="7" t="s">
         <v>10</v>
       </c>
@@ -50903,7 +50909,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1508" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1508" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1508" s="7" t="s">
         <v>103</v>
       </c>
@@ -50934,7 +50940,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1509" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1509" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1509" s="7" t="s">
         <v>10</v>
       </c>
@@ -50967,7 +50973,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1510" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1510" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1510" s="7" t="s">
         <v>103</v>
       </c>
@@ -50996,7 +51002,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1511" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1511" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1511" s="7" t="s">
         <v>10</v>
       </c>
@@ -51029,7 +51035,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1512" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1512" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1512" s="7" t="s">
         <v>10</v>
       </c>
@@ -51062,7 +51068,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1513" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1513" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1513" s="7" t="s">
         <v>10</v>
       </c>
@@ -51097,7 +51103,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1514" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1514" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1514" s="7" t="s">
         <v>10</v>
       </c>
@@ -51130,7 +51136,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1515" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1515" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1515" s="7" t="s">
         <v>103</v>
       </c>
@@ -51161,7 +51167,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1516" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1516" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1516" s="7" t="s">
         <v>103</v>
       </c>
@@ -51190,7 +51196,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="1517" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1517" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1517" s="7" t="s">
         <v>10</v>
       </c>
